--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H2">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I2">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J2">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N2">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O2">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P2">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q2">
-        <v>12.88993933611795</v>
+        <v>14.567199469194</v>
       </c>
       <c r="R2">
-        <v>12.88993933611795</v>
+        <v>87.40319681516399</v>
       </c>
       <c r="S2">
-        <v>0.00470190597298655</v>
+        <v>0.004965926679235177</v>
       </c>
       <c r="T2">
-        <v>0.00470190597298655</v>
+        <v>0.004513493502238128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H3">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I3">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J3">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N3">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P3">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q3">
-        <v>2.406740560720562</v>
+        <v>3.298998617696223</v>
       </c>
       <c r="R3">
-        <v>2.406740560720562</v>
+        <v>29.690987559266</v>
       </c>
       <c r="S3">
-        <v>0.0008779147459734372</v>
+        <v>0.001124621467909651</v>
       </c>
       <c r="T3">
-        <v>0.0008779147459734372</v>
+        <v>0.001533240022183378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H4">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I4">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J4">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N4">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O4">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P4">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q4">
-        <v>14.29764285931807</v>
+        <v>20.84799296204</v>
       </c>
       <c r="R4">
-        <v>14.29764285931807</v>
+        <v>187.63193665836</v>
       </c>
       <c r="S4">
-        <v>0.00521539866145736</v>
+        <v>0.00710703554774828</v>
       </c>
       <c r="T4">
-        <v>0.00521539866145736</v>
+        <v>0.009689296933964496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H5">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I5">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J5">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N5">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O5">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P5">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q5">
-        <v>18.16117872930427</v>
+        <v>19.79286040056467</v>
       </c>
       <c r="R5">
-        <v>18.16117872930427</v>
+        <v>178.135743605082</v>
       </c>
       <c r="S5">
-        <v>0.006624713469715171</v>
+        <v>0.006747343147830177</v>
       </c>
       <c r="T5">
-        <v>0.006624713469715171</v>
+        <v>0.009198914348386883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H6">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I6">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J6">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N6">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O6">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P6">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q6">
-        <v>6.529544649782922</v>
+        <v>6.945346226686667</v>
       </c>
       <c r="R6">
-        <v>6.529544649782922</v>
+        <v>62.50811604018</v>
       </c>
       <c r="S6">
-        <v>0.002381803683409961</v>
+        <v>0.002367653452989823</v>
       </c>
       <c r="T6">
-        <v>0.002381803683409961</v>
+        <v>0.003227913690401211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H7">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I7">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J7">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N7">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O7">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P7">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q7">
-        <v>164.245470321528</v>
+        <v>173.6604405870974</v>
       </c>
       <c r="R7">
-        <v>164.245470321528</v>
+        <v>1041.962643522584</v>
       </c>
       <c r="S7">
-        <v>0.05991236559018284</v>
+        <v>0.05920046724581012</v>
       </c>
       <c r="T7">
-        <v>0.05991236559018284</v>
+        <v>0.05380686053233832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H8">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I8">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J8">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N8">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O8">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P8">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q8">
-        <v>64.79510057474977</v>
+        <v>71.61243161071799</v>
       </c>
       <c r="R8">
-        <v>64.79510057474977</v>
+        <v>429.674589664308</v>
       </c>
       <c r="S8">
-        <v>0.02363552399032736</v>
+        <v>0.02441252249292125</v>
       </c>
       <c r="T8">
-        <v>0.02363552399032736</v>
+        <v>0.02218835854056798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H9">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I9">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J9">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N9">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P9">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q9">
-        <v>12.09819477212406</v>
+        <v>16.21789510010022</v>
       </c>
       <c r="R9">
-        <v>12.09819477212406</v>
+        <v>145.961055900902</v>
       </c>
       <c r="S9">
-        <v>0.0044130986793718</v>
+        <v>0.005528645236782855</v>
       </c>
       <c r="T9">
-        <v>0.0044130986793718</v>
+        <v>0.007537416266154695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H10">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I10">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J10">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N10">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O10">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P10">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q10">
-        <v>71.87133956911043</v>
+        <v>102.48884649188</v>
       </c>
       <c r="R10">
-        <v>71.87133956911043</v>
+        <v>922.39961842692</v>
       </c>
       <c r="S10">
-        <v>0.02621674718512054</v>
+        <v>0.03493822530503357</v>
       </c>
       <c r="T10">
-        <v>0.02621674718512054</v>
+        <v>0.04763263628721794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H11">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I11">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J11">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N11">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O11">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P11">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q11">
-        <v>91.2925477487684</v>
+        <v>97.30180909607266</v>
       </c>
       <c r="R11">
-        <v>91.2925477487684</v>
+        <v>875.716281864654</v>
       </c>
       <c r="S11">
-        <v>0.03330108578139906</v>
+        <v>0.0331699755158752</v>
       </c>
       <c r="T11">
-        <v>0.03330108578139906</v>
+        <v>0.04522191283642504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H12">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I12">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J12">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N12">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O12">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P12">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q12">
-        <v>32.82269150053447</v>
+        <v>34.14335972560666</v>
       </c>
       <c r="R12">
-        <v>32.82269150053447</v>
+        <v>307.29023753046</v>
       </c>
       <c r="S12">
-        <v>0.01197284216717943</v>
+        <v>0.01163939721829699</v>
       </c>
       <c r="T12">
-        <v>0.01197284216717943</v>
+        <v>0.01586844121191587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H13">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I13">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J13">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N13">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O13">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P13">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q13">
-        <v>825.6285379567668</v>
+        <v>853.7156679518413</v>
       </c>
       <c r="R13">
-        <v>825.6285379567668</v>
+        <v>5122.294007711048</v>
       </c>
       <c r="S13">
-        <v>0.3011672633097294</v>
+        <v>0.291029818114909</v>
       </c>
       <c r="T13">
-        <v>0.3011672633097294</v>
+        <v>0.2645148182537188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H14">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I14">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J14">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N14">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O14">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P14">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q14">
-        <v>81.546988500046</v>
+        <v>89.27627654803202</v>
       </c>
       <c r="R14">
-        <v>81.546988500046</v>
+        <v>535.6576592881921</v>
       </c>
       <c r="S14">
-        <v>0.02974616577388081</v>
+        <v>0.03043408889060676</v>
       </c>
       <c r="T14">
-        <v>0.02974616577388081</v>
+        <v>0.02766131506304222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H15">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I15">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J15">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N15">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P15">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q15">
-        <v>15.2260177266887</v>
+        <v>20.21818356698311</v>
       </c>
       <c r="R15">
-        <v>15.2260177266887</v>
+        <v>181.963652102848</v>
       </c>
       <c r="S15">
-        <v>0.005554045044519019</v>
+        <v>0.006892334892048464</v>
       </c>
       <c r="T15">
-        <v>0.005554045044519019</v>
+        <v>0.009396587211181204</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H16">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I16">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J16">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N16">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O16">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P16">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q16">
-        <v>90.45269240015811</v>
+        <v>127.76863453312</v>
       </c>
       <c r="R16">
-        <v>90.45269240015811</v>
+        <v>1149.91771079808</v>
       </c>
       <c r="S16">
-        <v>0.03299472895712678</v>
+        <v>0.04355605017555071</v>
       </c>
       <c r="T16">
-        <v>0.03299472895712678</v>
+        <v>0.05938165084249199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H17">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I17">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J17">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N17">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O17">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P17">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q17">
-        <v>114.8949885928542</v>
+        <v>121.3021681026774</v>
       </c>
       <c r="R17">
-        <v>114.8949885928542</v>
+        <v>1091.719512924096</v>
       </c>
       <c r="S17">
-        <v>0.04191062650056365</v>
+        <v>0.04135164580563577</v>
       </c>
       <c r="T17">
-        <v>0.04191062650056365</v>
+        <v>0.05637630095235362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H18">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I18">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J18">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N18">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O18">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P18">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q18">
-        <v>41.30854991492509</v>
+        <v>42.56512391189334</v>
       </c>
       <c r="R18">
-        <v>41.30854991492509</v>
+        <v>383.0861152070401</v>
       </c>
       <c r="S18">
-        <v>0.01506825691849183</v>
+        <v>0.0145103583489763</v>
       </c>
       <c r="T18">
-        <v>0.01506825691849183</v>
+        <v>0.0197825337606489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H19">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I19">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J19">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N19">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O19">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P19">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q19">
-        <v>1039.083515464244</v>
+        <v>1064.292251375659</v>
       </c>
       <c r="R19">
-        <v>1039.083515464244</v>
+        <v>6385.753508253953</v>
       </c>
       <c r="S19">
-        <v>0.3790299442374725</v>
+        <v>0.362814918322944</v>
       </c>
       <c r="T19">
-        <v>0.3790299442374725</v>
+        <v>0.3297597572700919</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H20">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I20">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J20">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N20">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O20">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P20">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q20">
-        <v>2.470091950566432</v>
+        <v>0.267226301982</v>
       </c>
       <c r="R20">
-        <v>2.470091950566432</v>
+        <v>1.603357811892</v>
       </c>
       <c r="S20">
-        <v>0.0009010236428073153</v>
+        <v>9.109686629966863E-05</v>
       </c>
       <c r="T20">
-        <v>0.0009010236428073153</v>
+        <v>8.279725833188E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H21">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I21">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J21">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N21">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P21">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q21">
-        <v>0.4612023634184155</v>
+        <v>0.0605180977108889</v>
       </c>
       <c r="R21">
-        <v>0.4612023634184155</v>
+        <v>0.5446628793980001</v>
       </c>
       <c r="S21">
-        <v>0.0001682343175375762</v>
+        <v>2.063048814802099E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001682343175375762</v>
+        <v>2.812634384840572E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H22">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I22">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J22">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N22">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O22">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P22">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q22">
-        <v>2.739849398663766</v>
+        <v>0.38244359012</v>
       </c>
       <c r="R22">
-        <v>2.739849398663766</v>
+        <v>3.44199231108</v>
       </c>
       <c r="S22">
-        <v>0.0009994239628858159</v>
+        <v>0.0001303741897332907</v>
       </c>
       <c r="T22">
-        <v>0.0009994239628858159</v>
+        <v>0.0001777441843879773</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H23">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I23">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J23">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N23">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O23">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P23">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q23">
-        <v>3.480216642009671</v>
+        <v>0.3630878331606667</v>
       </c>
       <c r="R23">
-        <v>3.480216642009671</v>
+        <v>3.267790498446</v>
       </c>
       <c r="S23">
-        <v>0.00126949018064818</v>
+        <v>0.0001237758541997921</v>
       </c>
       <c r="T23">
-        <v>0.00126949018064818</v>
+        <v>0.0001687484178937104</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H24">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I24">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J24">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N24">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O24">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P24">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q24">
-        <v>1.251253032285436</v>
+        <v>0.1274080987266667</v>
       </c>
       <c r="R24">
-        <v>1.251253032285436</v>
+        <v>1.14667288854</v>
       </c>
       <c r="S24">
-        <v>0.0004564237234022765</v>
+        <v>4.343314430171598E-05</v>
       </c>
       <c r="T24">
-        <v>0.0004564237234022765</v>
+        <v>5.921408850253855E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.252062</v>
+      </c>
+      <c r="I25">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J25">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.915598</v>
+      </c>
+      <c r="N25">
+        <v>75.83119600000001</v>
+      </c>
+      <c r="O25">
+        <v>0.7262698307979842</v>
+      </c>
+      <c r="P25">
+        <v>0.6564236302062433</v>
+      </c>
+      <c r="Q25">
+        <v>3.185693821025334</v>
+      </c>
+      <c r="R25">
+        <v>19.114162926152</v>
+      </c>
+      <c r="S25">
+        <v>0.00108599610866588</v>
+      </c>
+      <c r="T25">
+        <v>0.0009870537155563207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.939134</v>
+      </c>
+      <c r="H26">
+        <v>1.878268</v>
+      </c>
+      <c r="I26">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J26">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.180483</v>
+      </c>
+      <c r="N26">
+        <v>6.360966</v>
+      </c>
+      <c r="O26">
+        <v>0.06092186256078212</v>
+      </c>
+      <c r="P26">
+        <v>0.05506293733437207</v>
+      </c>
+      <c r="Q26">
+        <v>2.986899721722</v>
+      </c>
+      <c r="R26">
+        <v>11.947598886888</v>
+      </c>
+      <c r="S26">
+        <v>0.001018227631719256</v>
+      </c>
+      <c r="T26">
+        <v>0.0006169729701918717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.939134</v>
+      </c>
+      <c r="H27">
+        <v>1.878268</v>
+      </c>
+      <c r="I27">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J27">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.7202763333333334</v>
+      </c>
+      <c r="N27">
+        <v>2.160829</v>
+      </c>
+      <c r="O27">
+        <v>0.01379682764696979</v>
+      </c>
+      <c r="P27">
+        <v>0.01870495641971579</v>
+      </c>
+      <c r="Q27">
+        <v>0.6764359940286667</v>
+      </c>
+      <c r="R27">
+        <v>4.058615964172001</v>
+      </c>
+      <c r="S27">
+        <v>0.0002305955620808001</v>
+      </c>
+      <c r="T27">
+        <v>0.0002095865763481101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.939134</v>
+      </c>
+      <c r="H28">
+        <v>1.878268</v>
+      </c>
+      <c r="I28">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J28">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.55178</v>
+      </c>
+      <c r="N28">
+        <v>13.65534</v>
+      </c>
+      <c r="O28">
+        <v>0.08718893185938011</v>
+      </c>
+      <c r="P28">
+        <v>0.1182058087874616</v>
+      </c>
+      <c r="Q28">
+        <v>4.27473135852</v>
+      </c>
+      <c r="R28">
+        <v>25.64838815112</v>
+      </c>
+      <c r="S28">
+        <v>0.001457246641314251</v>
+      </c>
+      <c r="T28">
+        <v>0.001324480539399185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.939134</v>
+      </c>
+      <c r="H29">
+        <v>1.878268</v>
+      </c>
+      <c r="I29">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J29">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.321411</v>
+      </c>
+      <c r="N29">
+        <v>12.964233</v>
+      </c>
+      <c r="O29">
+        <v>0.08277623461928645</v>
+      </c>
+      <c r="P29">
+        <v>0.1122233241408928</v>
+      </c>
+      <c r="Q29">
+        <v>4.058383998074</v>
+      </c>
+      <c r="R29">
+        <v>24.350303988444</v>
+      </c>
+      <c r="S29">
+        <v>0.001383494295745502</v>
+      </c>
+      <c r="T29">
+        <v>0.001257447585833579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="H25">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="I25">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="J25">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>37.8955529209752</v>
-      </c>
-      <c r="N25">
-        <v>37.8955529209752</v>
-      </c>
-      <c r="O25">
-        <v>0.7515905466411961</v>
-      </c>
-      <c r="P25">
-        <v>0.7515905466411961</v>
-      </c>
-      <c r="Q25">
-        <v>31.47426869740325</v>
-      </c>
-      <c r="R25">
-        <v>31.47426869740325</v>
-      </c>
-      <c r="S25">
-        <v>0.0114809735038112</v>
-      </c>
-      <c r="T25">
-        <v>0.0114809735038112</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.939134</v>
+      </c>
+      <c r="H30">
+        <v>1.878268</v>
+      </c>
+      <c r="I30">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J30">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.51639</v>
+      </c>
+      <c r="N30">
+        <v>4.54917</v>
+      </c>
+      <c r="O30">
+        <v>0.02904631251559728</v>
+      </c>
+      <c r="P30">
+        <v>0.03937934311131445</v>
+      </c>
+      <c r="Q30">
+        <v>1.42409340626</v>
+      </c>
+      <c r="R30">
+        <v>8.544560437560001</v>
+      </c>
+      <c r="S30">
+        <v>0.0004854703510324571</v>
+      </c>
+      <c r="T30">
+        <v>0.000441240359845935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.939134</v>
+      </c>
+      <c r="H31">
+        <v>1.878268</v>
+      </c>
+      <c r="I31">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J31">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.915598</v>
+      </c>
+      <c r="N31">
+        <v>75.83119600000001</v>
+      </c>
+      <c r="O31">
+        <v>0.7262698307979842</v>
+      </c>
+      <c r="P31">
+        <v>0.6564236302062433</v>
+      </c>
+      <c r="Q31">
+        <v>35.607827212132</v>
+      </c>
+      <c r="R31">
+        <v>142.431308848528</v>
+      </c>
+      <c r="S31">
+        <v>0.01213863100565522</v>
+      </c>
+      <c r="T31">
+        <v>0.007355140434538087</v>
       </c>
     </row>
   </sheetData>
